--- a/jadwal praktikum komputer.xlsx
+++ b/jadwal praktikum komputer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="putra" sheetId="2" r:id="rId1"/>
@@ -134,58 +134,58 @@
     <t>3. The computer practicum book is a set of modules. So, when one module is finished, you may continue to the next module without waiting for your friend</t>
   </si>
   <si>
-    <t>Thursday</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Najwa Qurrota'Aini</t>
+  </si>
+  <si>
     <t>Audrey</t>
   </si>
   <si>
-    <t>Najwa Qurrota'Aini</t>
+    <t>Nur Intan Amira Syafiq*</t>
   </si>
   <si>
     <t>Aisyah Putri</t>
   </si>
   <si>
-    <t>Nur Intan Amira Syafiq*</t>
+    <t>Sekar Arum Wijayanti</t>
   </si>
   <si>
     <t>Aiko</t>
   </si>
   <si>
-    <t>Sekar Arum Wijayanti</t>
+    <t>Niswah adzkiyah</t>
   </si>
   <si>
     <t>Khanza</t>
   </si>
   <si>
-    <t>Niswah adzkiyah</t>
+    <t>Khoirunnisa Ahlam</t>
   </si>
   <si>
     <t>Syifa</t>
   </si>
   <si>
-    <t>Khoirunnisa Ahlam</t>
+    <t>Dhafia Ramadhiani Azzahra</t>
   </si>
   <si>
     <t>Aisyah M</t>
   </si>
   <si>
-    <t>Dhafia Ramadhiani Azzahra</t>
+    <t>Sabila farrah</t>
   </si>
   <si>
     <t>Amila</t>
   </si>
   <si>
-    <t>Sabila farrah</t>
+    <t>Haura Halwa Jannati</t>
   </si>
   <si>
     <t>Alya Zulfa Rahmdhani</t>
-  </si>
-  <si>
-    <t>Haura Halwa Jannati</t>
   </si>
 </sst>
 </file>
@@ -193,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -215,14 +215,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -231,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -252,115 +321,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,187 +375,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,55 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,17 +627,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,155 +659,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -855,7 +855,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1180,14 +1179,14 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="27.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="7.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,12 +1314,12 @@
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1330,18 +1329,18 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:3">
       <c r="A18" s="4" t="s">
@@ -1368,14 +1367,14 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/jadwal praktikum komputer.xlsx
+++ b/jadwal praktikum komputer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7875"/>
+    <workbookView windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="putra" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>Sunday</t>
+    <t>Saturday</t>
   </si>
   <si>
     <t>Najwa Qurrota'Aini</t>
@@ -1179,7 +1179,7 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1367,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>

--- a/jadwal praktikum komputer.xlsx
+++ b/jadwal praktikum komputer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\komputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAE0C0-C422-43E8-8F08-F521D0D723F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653ECBD-3A25-4CDA-9A9D-9F573B72ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="putra" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>COMPUTER PRACTICE SCHEDULE</t>
   </si>
@@ -877,12 +877,12 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>45</v>
@@ -974,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -991,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>49</v>
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -1025,7 +1025,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>55</v>
@@ -1059,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1070,11 +1070,6 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/jadwal praktikum komputer.xlsx
+++ b/jadwal praktikum komputer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\komputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653ECBD-3A25-4CDA-9A9D-9F573B72ABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE29729-779B-42D5-8B9D-7C679F3D7A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>COMPUTER PRACTICE SCHEDULE</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Alya Zulfa Rahmdhani</t>
+  </si>
+  <si>
+    <t>Aidan</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,11 +266,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +297,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,7 +893,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1035,8 +1051,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
+      <c r="A11" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -1071,6 +1087,11 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
